--- a/Тест-кейсы сайта ВКонтакте.xlsx
+++ b/Тест-кейсы сайта ВКонтакте.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="Workbook________"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Тестирование\Задание №6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Reposit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A81C79-995B-4C19-AD95-86F7E5B39034}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E911C9-6371-4CEC-8FED-A3A4D5992F69}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="570" windowWidth="46140" windowHeight="25230" tabRatio="682" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="105">
   <si>
     <t>passed</t>
   </si>
@@ -1128,6 +1128,27 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1136,27 +1157,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1554,10 +1554,10 @@
   <dimension ref="A1:Z55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="L25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="7" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
+      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1567,10 +1567,10 @@
     <col min="3" max="3" width="21.140625" customWidth="1"/>
     <col min="4" max="4" width="34.7109375" customWidth="1"/>
     <col min="5" max="5" width="50.140625" customWidth="1"/>
-    <col min="6" max="6" width="84.85546875" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" customWidth="1"/>
-    <col min="8" max="8" width="3.7109375" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" customWidth="1"/>
+    <col min="6" max="6" width="55.85546875" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" customWidth="1"/>
+    <col min="8" max="8" width="2.5703125" customWidth="1"/>
+    <col min="9" max="9" width="2.28515625" customWidth="1"/>
     <col min="10" max="10" width="1.140625" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="2.140625" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" customWidth="1"/>
@@ -1646,7 +1646,7 @@
       <c r="K2" s="10"/>
       <c r="L2" s="14">
         <f>COUNTIF(L$8:L$36,"passed")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M2" s="10"/>
       <c r="N2" s="14">
@@ -1773,43 +1773,43 @@
     </row>
     <row r="6" spans="1:26" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="11"/>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="33" t="s">
+      <c r="F6" s="30"/>
+      <c r="G6" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="37" t="s">
+      <c r="H6" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="31"/>
+      <c r="J6" s="38"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="30" t="s">
+      <c r="L6" s="37" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="10"/>
-      <c r="N6" s="30" t="s">
+      <c r="N6" s="37" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="10"/>
-      <c r="P6" s="30"/>
+      <c r="P6" s="37"/>
       <c r="Q6" s="10"/>
-      <c r="R6" s="30"/>
+      <c r="R6" s="37"/>
       <c r="S6" s="10"/>
-      <c r="T6" s="30"/>
+      <c r="T6" s="37"/>
       <c r="U6" s="10"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1819,29 +1819,29 @@
     </row>
     <row r="7" spans="1:26" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="11"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="36"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="21" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="32"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="39"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="30"/>
+      <c r="L7" s="37"/>
       <c r="M7" s="10"/>
-      <c r="N7" s="30"/>
+      <c r="N7" s="37"/>
       <c r="O7" s="10"/>
-      <c r="P7" s="30"/>
+      <c r="P7" s="37"/>
       <c r="Q7" s="10"/>
-      <c r="R7" s="30"/>
+      <c r="R7" s="37"/>
       <c r="S7" s="10"/>
-      <c r="T7" s="30"/>
+      <c r="T7" s="37"/>
       <c r="U7" s="10"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -1903,7 +1903,9 @@
       <c r="I9" s="18"/>
       <c r="J9" s="17"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="5"/>
+      <c r="L9" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M9" s="10"/>
       <c r="N9" s="5"/>
       <c r="O9" s="10"/>
@@ -1941,7 +1943,9 @@
       <c r="I10" s="18"/>
       <c r="J10" s="17"/>
       <c r="K10" s="9"/>
-      <c r="L10" s="5"/>
+      <c r="L10" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M10" s="10"/>
       <c r="N10" s="5"/>
       <c r="O10" s="10"/>
@@ -1979,7 +1983,9 @@
       <c r="I11" s="18"/>
       <c r="J11" s="17"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="5"/>
+      <c r="L11" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M11" s="10"/>
       <c r="N11" s="5"/>
       <c r="O11" s="10"/>
@@ -2017,7 +2023,9 @@
       <c r="I12" s="18"/>
       <c r="J12" s="17"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="5"/>
+      <c r="L12" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M12" s="10"/>
       <c r="N12" s="5"/>
       <c r="O12" s="10"/>
@@ -2055,7 +2063,9 @@
       <c r="I13" s="18"/>
       <c r="J13" s="17"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="5"/>
+      <c r="L13" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M13" s="10"/>
       <c r="N13" s="5"/>
       <c r="O13" s="10"/>
@@ -2247,7 +2257,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" ht="45">
+    <row r="19" spans="1:26" ht="60">
       <c r="A19" s="11"/>
       <c r="B19" s="3">
         <v>5</v>
@@ -2355,7 +2365,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" ht="60">
+    <row r="22" spans="1:26" ht="75">
       <c r="A22" s="11"/>
       <c r="B22" s="3">
         <v>8</v>
@@ -2427,7 +2437,7 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" ht="75">
+    <row r="24" spans="1:26" ht="90">
       <c r="A24" s="11"/>
       <c r="B24" s="3">
         <v>10</v>
@@ -3345,12 +3355,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -3358,6 +3362,12 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L8:L36 R8:R36 P8:P36 T8:T36 N8:N36" xr:uid="{00000000-0002-0000-0100-000000000000}">
